--- a/2022/SAMSUNG/JUNE/22.06.2022/SAMSUNG Bank Statement June-2022.xlsx
+++ b/2022/SAMSUNG/JUNE/22.06.2022/SAMSUNG Bank Statement June-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3360,12 +3360,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3384,39 +3417,6 @@
     <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3441,6 +3441,66 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3450,9 +3510,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3467,63 +3524,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="48" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6400,67 +6400,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="407" t="s">
+      <c r="A1" s="399" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="407"/>
-      <c r="C1" s="407"/>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
-      <c r="K1" s="407"/>
-      <c r="L1" s="407"/>
-      <c r="M1" s="407"/>
-      <c r="N1" s="407"/>
-      <c r="O1" s="407"/>
-      <c r="P1" s="407"/>
-      <c r="Q1" s="407"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
     </row>
     <row r="2" spans="1:24" s="61" customFormat="1" ht="18">
-      <c r="A2" s="408" t="s">
+      <c r="A2" s="400" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="408"/>
-      <c r="C2" s="408"/>
-      <c r="D2" s="408"/>
-      <c r="E2" s="408"/>
-      <c r="F2" s="408"/>
-      <c r="G2" s="408"/>
-      <c r="H2" s="408"/>
-      <c r="I2" s="408"/>
-      <c r="J2" s="408"/>
-      <c r="K2" s="408"/>
-      <c r="L2" s="408"/>
-      <c r="M2" s="408"/>
-      <c r="N2" s="408"/>
-      <c r="O2" s="408"/>
-      <c r="P2" s="408"/>
-      <c r="Q2" s="408"/>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="400"/>
+      <c r="P2" s="400"/>
+      <c r="Q2" s="400"/>
     </row>
     <row r="3" spans="1:24" s="62" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="409" t="s">
+      <c r="A3" s="401" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="410"/>
-      <c r="C3" s="410"/>
-      <c r="D3" s="410"/>
-      <c r="E3" s="410"/>
-      <c r="F3" s="410"/>
-      <c r="G3" s="410"/>
-      <c r="H3" s="410"/>
-      <c r="I3" s="410"/>
-      <c r="J3" s="410"/>
-      <c r="K3" s="410"/>
-      <c r="L3" s="410"/>
-      <c r="M3" s="410"/>
-      <c r="N3" s="410"/>
-      <c r="O3" s="410"/>
-      <c r="P3" s="410"/>
-      <c r="Q3" s="411"/>
+      <c r="B3" s="402"/>
+      <c r="C3" s="402"/>
+      <c r="D3" s="402"/>
+      <c r="E3" s="402"/>
+      <c r="F3" s="402"/>
+      <c r="G3" s="402"/>
+      <c r="H3" s="402"/>
+      <c r="I3" s="402"/>
+      <c r="J3" s="402"/>
+      <c r="K3" s="402"/>
+      <c r="L3" s="402"/>
+      <c r="M3" s="402"/>
+      <c r="N3" s="402"/>
+      <c r="O3" s="402"/>
+      <c r="P3" s="402"/>
+      <c r="Q3" s="403"/>
       <c r="S3" s="46"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6469,52 +6469,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="412" t="s">
+      <c r="A4" s="404" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="414" t="s">
+      <c r="B4" s="406" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="399" t="s">
+      <c r="C4" s="408" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="399" t="s">
+      <c r="D4" s="408" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="399" t="s">
+      <c r="E4" s="408" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="399" t="s">
+      <c r="F4" s="408" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="399" t="s">
+      <c r="G4" s="408" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="399" t="s">
+      <c r="H4" s="408" t="s">
         <v>225</v>
       </c>
-      <c r="I4" s="399" t="s">
+      <c r="I4" s="408" t="s">
         <v>224</v>
       </c>
-      <c r="J4" s="399" t="s">
+      <c r="J4" s="408" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="399" t="s">
+      <c r="K4" s="408" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="399" t="s">
+      <c r="L4" s="408" t="s">
         <v>128</v>
       </c>
-      <c r="M4" s="399" t="s">
+      <c r="M4" s="408" t="s">
         <v>162</v>
       </c>
-      <c r="N4" s="399" t="s">
+      <c r="N4" s="408" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="405" t="s">
+      <c r="O4" s="416" t="s">
         <v>141</v>
       </c>
-      <c r="P4" s="416" t="s">
+      <c r="P4" s="410" t="s">
         <v>171</v>
       </c>
       <c r="Q4" s="120" t="s">
@@ -6527,22 +6527,22 @@
       <c r="W4" s="65"/>
     </row>
     <row r="5" spans="1:24" s="63" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="413"/>
-      <c r="B5" s="415"/>
-      <c r="C5" s="400"/>
-      <c r="D5" s="400"/>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="400"/>
-      <c r="I5" s="400"/>
-      <c r="J5" s="400"/>
-      <c r="K5" s="400"/>
-      <c r="L5" s="400"/>
-      <c r="M5" s="400"/>
-      <c r="N5" s="400"/>
-      <c r="O5" s="406"/>
-      <c r="P5" s="417"/>
+      <c r="A5" s="405"/>
+      <c r="B5" s="407"/>
+      <c r="C5" s="409"/>
+      <c r="D5" s="409"/>
+      <c r="E5" s="409"/>
+      <c r="F5" s="409"/>
+      <c r="G5" s="409"/>
+      <c r="H5" s="409"/>
+      <c r="I5" s="409"/>
+      <c r="J5" s="409"/>
+      <c r="K5" s="409"/>
+      <c r="L5" s="409"/>
+      <c r="M5" s="409"/>
+      <c r="N5" s="409"/>
+      <c r="O5" s="417"/>
+      <c r="P5" s="411"/>
       <c r="Q5" s="121" t="s">
         <v>36</v>
       </c>
@@ -7252,12 +7252,12 @@
         <v>710</v>
       </c>
       <c r="R24" s="76"/>
-      <c r="S24" s="401" t="s">
+      <c r="S24" s="412" t="s">
         <v>186</v>
       </c>
-      <c r="T24" s="401"/>
-      <c r="U24" s="401"/>
-      <c r="V24" s="401"/>
+      <c r="T24" s="412"/>
+      <c r="U24" s="412"/>
+      <c r="V24" s="412"/>
       <c r="W24" s="87"/>
     </row>
     <row r="25" spans="1:23" s="86" customFormat="1">
@@ -7354,11 +7354,11 @@
         <v>0</v>
       </c>
       <c r="R27" s="76"/>
-      <c r="S27" s="402" t="s">
+      <c r="S27" s="413" t="s">
         <v>80</v>
       </c>
-      <c r="T27" s="403"/>
-      <c r="U27" s="404"/>
+      <c r="T27" s="414"/>
+      <c r="U27" s="415"/>
       <c r="V27" s="350">
         <f>SUM(V25:V26)</f>
         <v>4900</v>
@@ -9651,6 +9651,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9667,11 +9672,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9684,8 +9684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33820,7 +33820,7 @@
   </sheetPr>
   <dimension ref="A1:R217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -33844,28 +33844,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="438" t="s">
+      <c r="A1" s="430" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="439"/>
-      <c r="C1" s="439"/>
-      <c r="D1" s="439"/>
-      <c r="E1" s="440"/>
+      <c r="B1" s="431"/>
+      <c r="C1" s="431"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="432"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="437"/>
-      <c r="J1" s="437"/>
-      <c r="K1" s="437"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
+      <c r="K1" s="429"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="447" t="s">
+      <c r="A2" s="439" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="448"/>
-      <c r="C2" s="448"/>
-      <c r="D2" s="448"/>
-      <c r="E2" s="449"/>
+      <c r="B2" s="440"/>
+      <c r="C2" s="440"/>
+      <c r="D2" s="440"/>
+      <c r="E2" s="441"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -33886,13 +33886,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="441" t="s">
+      <c r="A3" s="433" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="442"/>
-      <c r="C3" s="442"/>
-      <c r="D3" s="442"/>
-      <c r="E3" s="443"/>
+      <c r="B3" s="434"/>
+      <c r="C3" s="434"/>
+      <c r="D3" s="434"/>
+      <c r="E3" s="435"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -33919,13 +33919,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="450" t="s">
+      <c r="A4" s="442" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="451"/>
-      <c r="C4" s="451"/>
-      <c r="D4" s="451"/>
-      <c r="E4" s="452"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="443"/>
+      <c r="D4" s="443"/>
+      <c r="E4" s="444"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -34403,11 +34403,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="305"/>
-      <c r="I17" s="429" t="s">
+      <c r="I17" s="426" t="s">
         <v>184</v>
       </c>
-      <c r="J17" s="429"/>
-      <c r="K17" s="429"/>
+      <c r="J17" s="426"/>
+      <c r="K17" s="426"/>
       <c r="L17" s="356">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -34430,11 +34430,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="305"/>
-      <c r="I18" s="453" t="s">
+      <c r="I18" s="445" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="453"/>
-      <c r="K18" s="453"/>
+      <c r="J18" s="445"/>
+      <c r="K18" s="445"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -34446,21 +34446,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="444" t="s">
+      <c r="A19" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="445"/>
-      <c r="C19" s="445"/>
-      <c r="D19" s="445"/>
-      <c r="E19" s="446"/>
+      <c r="B19" s="437"/>
+      <c r="C19" s="437"/>
+      <c r="D19" s="437"/>
+      <c r="E19" s="438"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="435" t="s">
+      <c r="I19" s="427" t="s">
         <v>192</v>
       </c>
-      <c r="J19" s="436"/>
-      <c r="K19" s="436"/>
+      <c r="J19" s="428"/>
+      <c r="K19" s="428"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -34488,11 +34488,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="436" t="s">
+      <c r="I20" s="428" t="s">
         <v>193</v>
       </c>
-      <c r="J20" s="436"/>
-      <c r="K20" s="436"/>
+      <c r="J20" s="428"/>
+      <c r="K20" s="428"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -34519,11 +34519,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="426" t="s">
+      <c r="I21" s="446" t="s">
         <v>233</v>
       </c>
-      <c r="J21" s="427"/>
-      <c r="K21" s="428"/>
+      <c r="J21" s="447"/>
+      <c r="K21" s="448"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -34548,11 +34548,11 @@
       <c r="E22" s="264">
         <v>301370</v>
       </c>
-      <c r="I22" s="426" t="s">
+      <c r="I22" s="446" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="427"/>
-      <c r="K22" s="428"/>
+      <c r="J22" s="447"/>
+      <c r="K22" s="448"/>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
       <c r="N22" s="7"/>
@@ -34575,11 +34575,11 @@
       <c r="E23" s="264">
         <v>81590</v>
       </c>
-      <c r="I23" s="429" t="s">
+      <c r="I23" s="426" t="s">
         <v>121</v>
       </c>
-      <c r="J23" s="429"/>
-      <c r="K23" s="429"/>
+      <c r="J23" s="426"/>
+      <c r="K23" s="426"/>
       <c r="L23" s="356">
         <f>L17-L18-L19-L20-L21-L22</f>
         <v>188150</v>
@@ -34649,13 +34649,13 @@
       <c r="E26" s="264">
         <v>15090</v>
       </c>
-      <c r="I26" s="430" t="s">
+      <c r="I26" s="449" t="s">
         <v>237</v>
       </c>
-      <c r="J26" s="431"/>
-      <c r="K26" s="431"/>
-      <c r="L26" s="431"/>
-      <c r="M26" s="432"/>
+      <c r="J26" s="450"/>
+      <c r="K26" s="450"/>
+      <c r="L26" s="450"/>
+      <c r="M26" s="451"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -34676,11 +34676,11 @@
       <c r="E27" s="336">
         <v>25000</v>
       </c>
-      <c r="I27" s="433" t="s">
+      <c r="I27" s="452" t="s">
         <v>172</v>
       </c>
-      <c r="J27" s="433"/>
-      <c r="K27" s="434"/>
+      <c r="J27" s="452"/>
+      <c r="K27" s="453"/>
       <c r="L27" s="391">
         <v>213170</v>
       </c>
@@ -34705,11 +34705,11 @@
       <c r="E28" s="271">
         <v>111000</v>
       </c>
-      <c r="I28" s="435" t="s">
+      <c r="I28" s="427" t="s">
         <v>238</v>
       </c>
-      <c r="J28" s="436"/>
-      <c r="K28" s="436"/>
+      <c r="J28" s="428"/>
+      <c r="K28" s="428"/>
       <c r="L28" s="390">
         <v>79500</v>
       </c>
@@ -34736,11 +34736,11 @@
       <c r="E29" s="271">
         <v>200000</v>
       </c>
-      <c r="I29" s="435" t="s">
+      <c r="I29" s="427" t="s">
         <v>238</v>
       </c>
-      <c r="J29" s="436"/>
-      <c r="K29" s="436"/>
+      <c r="J29" s="428"/>
+      <c r="K29" s="428"/>
       <c r="L29" s="393">
         <v>47500</v>
       </c>
@@ -34767,9 +34767,9 @@
       <c r="E30" s="355">
         <v>40000</v>
       </c>
-      <c r="I30" s="426"/>
-      <c r="J30" s="427"/>
-      <c r="K30" s="428"/>
+      <c r="I30" s="446"/>
+      <c r="J30" s="447"/>
+      <c r="K30" s="448"/>
       <c r="L30" s="390"/>
       <c r="M30" s="390"/>
       <c r="N30" s="7"/>
@@ -34783,9 +34783,9 @@
       <c r="B31" s="33"/>
       <c r="C31" s="5"/>
       <c r="D31" s="32"/>
-      <c r="I31" s="426"/>
-      <c r="J31" s="427"/>
-      <c r="K31" s="428"/>
+      <c r="I31" s="446"/>
+      <c r="J31" s="447"/>
+      <c r="K31" s="448"/>
       <c r="L31" s="390"/>
       <c r="M31" s="390"/>
       <c r="N31" s="7"/>
@@ -34795,11 +34795,11 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="15.75">
-      <c r="I32" s="429" t="s">
+      <c r="I32" s="426" t="s">
         <v>121</v>
       </c>
-      <c r="J32" s="429"/>
-      <c r="K32" s="429"/>
+      <c r="J32" s="426"/>
+      <c r="K32" s="426"/>
       <c r="L32" s="389">
         <f>L27-L28-L29-L30-L31</f>
         <v>86170</v>
@@ -37529,6 +37529,13 @@
     <sortCondition ref="A20"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I1:K1"/>
@@ -37542,13 +37549,6 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
